--- a/Money Manager Python/expense_record.xlsx
+++ b/Money Manager Python/expense_record.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,11 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +457,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45296</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +470,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45301</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -481,7 +483,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45306</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -494,7 +496,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45311</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,7 +509,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45325</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -520,7 +522,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45330</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -533,7 +535,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45337</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -546,7 +548,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45344</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -559,7 +561,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45356</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -572,7 +574,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>45361</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -585,7 +587,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>45366</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -598,7 +600,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>45371</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -611,7 +613,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -624,7 +626,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>45390</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -637,7 +639,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>45397</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -650,7 +652,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>45402</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -663,7 +665,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>45412</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -673,6 +675,47 @@
       </c>
       <c r="C18" t="n">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45419.96818364583</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Money Manager Python/expense_record.xlsx
+++ b/Money Manager Python/expense_record.xlsx
@@ -1,40 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\My Python\OOP2_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66F5C5C-759D-4A2E-A488-4FCF492C8E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rafid" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Rafid" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,27 +78,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -139,6 +179,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -147,7 +195,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="171717"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -426,295 +474,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.08984375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>45296</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>50</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>45301</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Transport</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>45306</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Health</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>45311</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>100</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>45325</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>60</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>45330</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Transport</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>35</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>45337</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Health</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>25</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>45344</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>120</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>45356</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>55</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>45361</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Transport</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>40</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>45366</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Health</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>30</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>45371</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
         <v>110</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>45384</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>65</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>45390</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Transport</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
         <v>45</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>45397</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Health</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
         <v>35</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>45402</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>130</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45412</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Salary</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>45419</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45419.96818364583</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Transport</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>100</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2024-05-07</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>45419.968183645833</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>10</v>
       </c>
     </row>
